--- a/biology/Histoire de la zoologie et de la botanique/Jacques_Perrin_de_Brichambaut/Jacques_Perrin_de_Brichambaut.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jacques_Perrin_de_Brichambaut/Jacques_Perrin_de_Brichambaut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques Perrin de Brichambaut (né le 18 octobre 1920 à Paris et mort le 17 mars 2007 dans la même ville[1]) est un ornithologue français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Perrin de Brichambaut (né le 18 octobre 1920 à Paris et mort le 17 mars 2007 dans la même ville) est un ornithologue français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né le 18 octobre 1920 à Paris, Jacques Perrin de Brichambaut est un ornithologue français. Après des études de droit et de sciences politiques, il se spécialise dans les études de marché. Engagé volontaire en 1944, il est grièvement blessé près du Lac de Constance et reçoit la médaille militaire et la croix de guerre 1939-1945.
 Passionné très tôt par l’ornithologie, il fonde avec Michel Deramond une cellule d’études ornithologiques dans l’Oise. Il ne cessera dès lors de parcourir la France entière avec un autre ornithologue, Georges Guichard, pour observer les oiseaux et en décrire le comportement en particulier lors des périodes de nidification.
@@ -549,7 +563,9 @@
           <t>Collection oologique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Lagopède d'Écosse.
@@ -584,7 +600,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 « Quelques observations sur le terrain » - Oiseaux de France – 1951
